--- a/iselUssSyncV2/OutputWSLorientation/20220524_1313_D50L474W30Q18.0U0.37H61.5G2_S2_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSLorientation/20220524_1313_D50L474W30Q18.0U0.37H61.5G2_S2_DATA.xlsx
@@ -344,10 +344,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="N2" s="0">
-        <v>0.023699999999999999</v>
+        <v>0.013550436903969579</v>
       </c>
       <c r="O2" s="0">
-        <v>0.48709903427509749</v>
+        <v>0.2784980898704314</v>
       </c>
       <c r="P2" s="0">
         <v>253.89225999999994</v>
@@ -356,10 +356,10 @@
         <v>2.4906830705999998</v>
       </c>
       <c r="R2" s="0">
-        <v>1.5357384693101532</v>
+        <v>2.686038980188763</v>
       </c>
       <c r="S2" s="0">
-        <v>0.40400272718663577</v>
+        <v>1.3982578986993845</v>
       </c>
       <c r="T2" s="0">
         <v>0.037544005666178271</v>
@@ -383,16 +383,16 @@
         <v>180000</v>
       </c>
       <c r="AA2" s="0">
-        <v>1.621814599538425</v>
+        <v>0.92726989033679841</v>
       </c>
       <c r="AB2" s="0">
-        <v>6.1650154887429442</v>
+        <v>1.7812758811638076</v>
       </c>
       <c r="AC2" s="0">
-        <v>3.9781035470378208</v>
+        <v>1.9890517735189104</v>
       </c>
       <c r="AD2" s="0">
-        <v>3.4626629794676287</v>
+        <v>1.7313314897338143</v>
       </c>
       <c r="AE2" s="0">
         <v>20</v>
@@ -401,7 +401,7 @@
         <v>33</v>
       </c>
       <c r="AG2" s="0">
-        <v>10.143119035780765</v>
+        <v>3.7703276546827178</v>
       </c>
     </row>
   </sheetData>
